--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="支持的邮箱" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,22 @@
   </si>
   <si>
     <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,6 +230,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -233,7 +317,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -518,19 +602,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>126</v>
       </c>
@@ -546,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>163</v>
       </c>
@@ -554,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>139</v>
       </c>
@@ -562,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -570,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -578,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,20 +690,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -630,17 +714,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -651,7 +738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -659,17 +746,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -680,37 +767,37 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -721,14 +808,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>王超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +697,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -726,6 +730,9 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,10 +706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -827,8 +839,19 @@
       <c r="A17" t="s">
         <v>31</v>
       </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,10 @@
   </si>
   <si>
     <t>王超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +713,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -850,6 +854,9 @@
       <c r="A18" t="s">
         <v>42</v>
       </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" t="s">
         <v>43</v>
       </c>

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +725,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -738,6 +750,9 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
@@ -799,10 +814,16 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -793,6 +805,9 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -880,6 +895,14 @@
       </c>
       <c r="D18" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>崔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -905,6 +917,19 @@
         <v>50</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>王超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +753,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -867,6 +871,9 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -920,6 +927,9 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -753,7 +753,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -871,6 +871,9 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>王超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -753,7 +757,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -942,6 +946,9 @@
       <c r="A21" t="s">
         <v>52</v>
       </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,10 @@
   </si>
   <si>
     <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +761,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -865,10 +869,16 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,139 +108,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>邮政储蓄银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
+    <t>崔志彬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +765,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -779,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,10 +791,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +802,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,7 +813,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,7 +821,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,10 +831,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,55 +845,61 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,64 +910,64 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/支持的邮箱和银行.xlsx
+++ b/支持的邮箱和银行.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,7 +765,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -852,6 +852,9 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
@@ -860,6 +863,9 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" t="s">
         <v>57</v>
       </c>
@@ -946,6 +952,9 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
